--- a/BackTest/2019-10-28 BackTest EOS.xlsx
+++ b/BackTest/2019-10-28 BackTest EOS.xlsx
@@ -3356,14 +3356,20 @@
         <v>3654.666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3651</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +3397,20 @@
         <v>3646.333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3640</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3426,14 +3438,20 @@
         <v>3646</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3648</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3479,20 @@
         <v>3649</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3650</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3496,14 +3520,20 @@
         <v>3646.333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3649</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +3561,20 @@
         <v>3643</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3640</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3566,14 +3602,20 @@
         <v>3640</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3640</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3601,14 +3643,20 @@
         <v>3641.333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3640</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,12 +3690,12 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3648</v>
+        <v>3644</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3724,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3655</v>
+        <v>3660</v>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
@@ -3759,14 +3807,12 @@
         <v>3655</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>3653</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3841,14 +3887,12 @@
         <v>3651.333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>3651</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -3923,14 +3967,12 @@
         <v>3650</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>3649</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -3964,14 +4006,12 @@
         <v>3655</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>3658</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4005,14 +4045,12 @@
         <v>3657.333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>3664</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4046,14 +4084,12 @@
         <v>3658</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>3660</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4087,14 +4123,12 @@
         <v>3651.333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>3656</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4128,14 +4162,12 @@
         <v>3644.666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>3645</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4169,14 +4201,12 @@
         <v>3638</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>3640</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4210,14 +4240,12 @@
         <v>3637.333333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>3635</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4251,14 +4279,12 @@
         <v>3639.666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>3642</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4292,14 +4318,12 @@
         <v>3641.333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>3642</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4333,14 +4357,12 @@
         <v>3644</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>3640</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4374,14 +4396,12 @@
         <v>3646.666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>3650</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4415,14 +4435,12 @@
         <v>3651.666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>3655</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4456,14 +4474,12 @@
         <v>3651.333333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>3655</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4497,14 +4513,12 @@
         <v>3653.666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>3650</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4538,14 +4552,12 @@
         <v>3652.666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>3651</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4579,14 +4591,12 @@
         <v>3652.333333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>3655</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4620,14 +4630,12 @@
         <v>3649.333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>3648</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4661,14 +4669,12 @@
         <v>3647.666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>3644</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4702,14 +4708,12 @@
         <v>3645.666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>3646</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4743,14 +4747,12 @@
         <v>3647.333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>3649</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4784,14 +4786,12 @@
         <v>3647.333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>3653</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4825,14 +4825,12 @@
         <v>3649.333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>3647</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -4866,14 +4864,12 @@
         <v>3647</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>3646</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -4907,14 +4903,12 @@
         <v>3644.666666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>3644</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -4948,14 +4942,12 @@
         <v>3642.333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>3644</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -4989,14 +4981,12 @@
         <v>3639.666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>3638</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5030,14 +5020,12 @@
         <v>3639.333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>3641</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5071,14 +5059,12 @@
         <v>3642</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>3641</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5112,14 +5098,12 @@
         <v>3645</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>3647</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5153,14 +5137,12 @@
         <v>3648</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>3648</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5194,14 +5176,12 @@
         <v>3645.666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>3642</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5235,14 +5215,12 @@
         <v>3643.333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>3640</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5276,14 +5254,12 @@
         <v>3638</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>3641</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5317,14 +5293,12 @@
         <v>3637</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>3632</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5358,14 +5332,12 @@
         <v>3636.666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>3639</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5399,14 +5371,12 @@
         <v>3637.666666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>3635</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5440,14 +5410,12 @@
         <v>3639</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>3639</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5481,14 +5449,12 @@
         <v>3641</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>3641</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5522,14 +5488,12 @@
         <v>3647</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>3644</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5563,14 +5527,12 @@
         <v>3648</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>3653</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5604,14 +5566,12 @@
         <v>3650.333333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>3651</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5645,14 +5605,12 @@
         <v>3652.666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>3652</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5686,14 +5644,12 @@
         <v>3657.333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>3660</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5727,14 +5683,12 @@
         <v>3658.333333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>3655</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5768,14 +5722,12 @@
         <v>3656.666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>3660</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5809,14 +5761,12 @@
         <v>3656.333333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>3659</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5850,14 +5800,12 @@
         <v>3658.666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>3658</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5891,14 +5839,12 @@
         <v>3661</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>3663</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5932,14 +5878,12 @@
         <v>3659.666666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>3661</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5973,14 +5917,12 @@
         <v>3656.666666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>3653</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -6014,14 +5956,12 @@
         <v>3654</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>3654</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -6055,14 +5995,12 @@
         <v>3655</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>3658</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6096,14 +6034,12 @@
         <v>3657.666666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>3656</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6137,14 +6073,12 @@
         <v>3660.333333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>3662</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6178,14 +6112,12 @@
         <v>3660.333333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>3660</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6219,14 +6151,12 @@
         <v>3660</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>3658</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6260,14 +6190,12 @@
         <v>3658.333333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>3657</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6301,14 +6229,12 @@
         <v>3658</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>3660</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6342,14 +6268,12 @@
         <v>3657.666666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>3659</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6383,14 +6307,12 @@
         <v>3658</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>3659</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6424,14 +6346,12 @@
         <v>3661.666666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>3660</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6465,14 +6385,12 @@
         <v>3666</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>3668</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6506,14 +6424,12 @@
         <v>3672.666666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>3671</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6547,14 +6463,12 @@
         <v>3675</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>3675</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6588,14 +6502,12 @@
         <v>3681</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>3680</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6629,14 +6541,12 @@
         <v>3688</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>3690</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6670,14 +6580,12 @@
         <v>3694</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>3697</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6711,14 +6619,12 @@
         <v>3694</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>3690</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6752,14 +6658,12 @@
         <v>3690.333333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>3686</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6793,14 +6697,12 @@
         <v>3687.666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>3685</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6834,14 +6736,12 @@
         <v>3684.333333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>3685</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6875,14 +6775,12 @@
         <v>3683</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>3680</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6916,14 +6814,12 @@
         <v>3683.333333333333</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>3682</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -32542,7 +32438,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest EOS.xlsx
+++ b/BackTest/2019-10-28 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3136,11 +3136,9 @@
         <v>5273.299436120011</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3175,11 +3173,9 @@
         <v>685.1137361200108</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3253,11 +3249,9 @@
         <v>-0.8585159999893222</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3292,11 +3286,9 @@
         <v>40.14598400001068</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3331,11 +3323,9 @@
         <v>-862.2964159999893</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3370,11 +3360,9 @@
         <v>9564.828436120009</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3409,11 +3397,9 @@
         <v>13538.95863612001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3448,11 +3434,9 @@
         <v>11002.29095338001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3487,11 +3471,9 @@
         <v>7498.646653380009</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3526,11 +3508,9 @@
         <v>10288.35605338001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3565,11 +3545,9 @@
         <v>17106.29655338001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3604,11 +3582,9 @@
         <v>15159.44255338001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3643,11 +3619,9 @@
         <v>24898.31625338001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3682,11 +3656,9 @@
         <v>33463.59185338001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3721,11 +3693,9 @@
         <v>42671.02675338001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3797,11 +3767,9 @@
         <v>34371.73885338001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3729</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3836,11 +3804,9 @@
         <v>27157.11755338001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3875,11 +3841,9 @@
         <v>25282.61365338001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3914,11 +3878,9 @@
         <v>29893.48867227001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3953,11 +3915,9 @@
         <v>24737.72167227001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3992,11 +3952,9 @@
         <v>29298.16127227002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4031,11 +3989,9 @@
         <v>35196.01887227002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4070,11 +4026,9 @@
         <v>34471.31167227002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4109,11 +4063,9 @@
         <v>46152.81777227002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -5739,11 +5691,9 @@
         <v>31982.36499295</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5778,11 +5728,9 @@
         <v>23857.48669294999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5854,11 +5802,9 @@
         <v>17447.48599294999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5893,11 +5839,9 @@
         <v>7441.290392949995</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3651</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5932,11 +5876,9 @@
         <v>29592.93802423</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5971,11 +5913,9 @@
         <v>38437.76232423</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -6010,11 +5950,9 @@
         <v>34095.41252422999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6049,11 +5987,9 @@
         <v>30042.56382422999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6244,11 +6180,9 @@
         <v>37148.91332422999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6283,11 +6217,9 @@
         <v>34674.88932423</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6595,11 +6527,9 @@
         <v>19587.88739896</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6985,11 +6915,9 @@
         <v>20832.79079896</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -7024,11 +6952,9 @@
         <v>21452.23599896</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -7063,11 +6989,9 @@
         <v>20397.82119896</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -7102,11 +7026,9 @@
         <v>20010.96789896</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7141,11 +7063,9 @@
         <v>20010.96789896</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -8311,11 +8231,9 @@
         <v>44700.51649895999</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8350,11 +8268,9 @@
         <v>44700.51649895999</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8389,11 +8305,9 @@
         <v>43737.95519895999</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8428,11 +8342,9 @@
         <v>43193.59779895999</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8662,11 +8574,9 @@
         <v>50550.78479895999</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3658</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8701,11 +8611,9 @@
         <v>50550.35579895999</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8740,11 +8648,9 @@
         <v>50550.35579895999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8935,11 +8841,9 @@
         <v>55644.08919895999</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8974,11 +8878,9 @@
         <v>54805.11389895999</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -9013,11 +8915,9 @@
         <v>56571.55049895999</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>3675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -9052,11 +8952,9 @@
         <v>68811.48089896</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -9091,11 +8989,9 @@
         <v>65941.64259896</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>3699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -9130,11 +9026,9 @@
         <v>60755.58039896</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>3693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -9169,11 +9063,9 @@
         <v>60086.49969896</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -9208,11 +9100,9 @@
         <v>58967.80779896</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -9247,11 +9137,9 @@
         <v>57010.86619896</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9286,11 +9174,9 @@
         <v>58823.91587431</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>3680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9325,11 +9211,9 @@
         <v>59196.17687431</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -9364,11 +9248,9 @@
         <v>58836.57007431</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>3686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9403,11 +9285,9 @@
         <v>61886.44317430999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>3684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -9442,11 +9322,9 @@
         <v>61795.87077430999</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9481,11 +9359,9 @@
         <v>62159.74377430999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -9520,11 +9396,9 @@
         <v>63182.79317431</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9559,11 +9433,9 @@
         <v>65518.78187431</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9598,11 +9470,9 @@
         <v>64627.13269726</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9637,11 +9507,9 @@
         <v>64414.90489726</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9676,11 +9544,9 @@
         <v>63738.41471786</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>3691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9715,11 +9581,9 @@
         <v>63738.41471786</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9754,11 +9618,9 @@
         <v>63738.41471786</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9793,11 +9655,9 @@
         <v>63599.26931785999</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9832,11 +9692,9 @@
         <v>64596.29731785999</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9871,11 +9729,9 @@
         <v>60403.00161785999</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9910,11 +9766,9 @@
         <v>61246.25411785999</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9949,11 +9803,9 @@
         <v>61246.25411785999</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9988,11 +9840,9 @@
         <v>61252.75411785999</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -10027,11 +9877,9 @@
         <v>61242.17791785999</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -10066,11 +9914,9 @@
         <v>61429.67781785999</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -10105,11 +9951,9 @@
         <v>62472.05321785999</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -10144,11 +9988,9 @@
         <v>62263.70441785999</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -10183,11 +10025,9 @@
         <v>62562.92761785999</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -10222,11 +10062,9 @@
         <v>62562.92761785999</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -10261,11 +10099,9 @@
         <v>63787.12831785999</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10300,11 +10136,9 @@
         <v>63787.12831785999</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10339,11 +10173,9 @@
         <v>58640.41801785999</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10378,11 +10210,9 @@
         <v>57355.68092382999</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>3687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10417,11 +10247,9 @@
         <v>57792.07322382999</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10456,11 +10284,9 @@
         <v>67583.21672382999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10495,11 +10321,9 @@
         <v>66028.37797984999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>3707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10534,11 +10358,9 @@
         <v>65418.87447984999</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -10573,11 +10395,9 @@
         <v>67154.31687985</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10612,11 +10432,9 @@
         <v>71145.69417984999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10651,11 +10469,9 @@
         <v>70473.60507984999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10690,11 +10506,9 @@
         <v>68788.67587984999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10729,11 +10543,9 @@
         <v>53021.41447984999</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3703</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10768,11 +10580,9 @@
         <v>53712.48777984999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10807,11 +10617,9 @@
         <v>53654.60097984999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10883,11 +10691,9 @@
         <v>52625.43237985</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10996,11 +10802,9 @@
         <v>55088.41677985001</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -11072,11 +10876,9 @@
         <v>55480.68237985</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -11148,11 +10950,9 @@
         <v>51667.89507985001</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>3707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -11816,11 +11616,9 @@
         <v>19611.56477985001</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11929,11 +11727,9 @@
         <v>20544.12377985002</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -12079,11 +11875,9 @@
         <v>27873.43137985002</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -13228,18 +13022,16 @@
         <v>229035.5479553901</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
@@ -13265,15 +13057,11 @@
         <v>220326.3864795901</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13302,15 +13090,11 @@
         <v>226797.4055795901</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13339,15 +13123,11 @@
         <v>285714.5327502401</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13376,15 +13156,11 @@
         <v>273676.07285024</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13413,15 +13189,11 @@
         <v>277227.01275024</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13450,15 +13222,11 @@
         <v>266731.51642038</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13487,15 +13255,11 @@
         <v>285450.47209674</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13524,15 +13288,11 @@
         <v>269162.74139674</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13561,15 +13321,11 @@
         <v>254254.54519674</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13598,15 +13354,11 @@
         <v>282005.66663571</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13635,15 +13387,11 @@
         <v>272902.10113571</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13672,15 +13420,11 @@
         <v>256896.57553571</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13709,15 +13453,11 @@
         <v>263777.0812357099</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13490,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13787,11 +13523,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13820,15 +13552,11 @@
         <v>282174.60353789</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13857,15 +13585,11 @@
         <v>276291.68713789</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13894,15 +13618,11 @@
         <v>276291.68713789</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13931,15 +13651,11 @@
         <v>274557.84033789</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13972,11 +13688,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14009,11 +13721,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14042,15 +13750,11 @@
         <v>265893.42730522</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14083,11 +13787,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14120,11 +13820,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14157,11 +13853,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14194,11 +13886,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14231,11 +13919,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14268,11 +13952,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14305,11 +13985,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14342,11 +14018,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14379,11 +14051,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14416,11 +14084,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14453,11 +14117,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14490,11 +14150,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14527,11 +14183,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14564,11 +14216,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14601,11 +14249,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14638,11 +14282,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14675,11 +14315,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14712,11 +14348,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14749,11 +14381,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14786,11 +14414,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14823,11 +14447,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14860,11 +14480,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14897,11 +14513,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14934,11 +14546,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +14579,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15008,11 +14612,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15045,11 +14645,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15082,11 +14678,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15119,11 +14711,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15156,11 +14744,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15193,11 +14777,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15230,11 +14810,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15267,11 +14843,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15304,11 +14876,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15341,11 +14909,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15378,11 +14942,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15415,11 +14975,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15452,11 +15008,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15489,11 +15041,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15526,11 +15074,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15563,11 +15107,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15600,11 +15140,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15637,11 +15173,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15674,11 +15206,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15711,11 +15239,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15748,11 +15272,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15785,11 +15305,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15822,11 +15338,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15859,11 +15371,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15896,11 +15404,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15933,11 +15437,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15970,11 +15470,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16007,11 +15503,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16044,11 +15536,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16081,11 +15569,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16118,11 +15602,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16155,11 +15635,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +15668,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16229,11 +15701,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16266,11 +15734,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16303,11 +15767,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16340,11 +15800,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16377,11 +15833,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16414,11 +15866,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16451,11 +15899,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16488,11 +15932,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16525,11 +15965,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16562,11 +15998,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16599,11 +16031,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16636,11 +16064,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16673,11 +16097,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16710,11 +16130,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16747,11 +16163,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16784,11 +16196,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16821,11 +16229,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16858,11 +16262,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16895,11 +16295,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16932,11 +16328,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16969,11 +16361,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17006,11 +16394,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17043,11 +16427,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17080,11 +16460,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17117,11 +16493,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17154,11 +16526,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17191,11 +16559,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17228,11 +16592,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17265,11 +16625,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17302,11 +16658,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17339,11 +16691,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17376,11 +16724,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +16757,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17450,11 +16790,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17487,11 +16823,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17524,11 +16856,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17561,11 +16889,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17598,11 +16922,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17635,11 +16955,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17672,11 +16988,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17709,11 +17021,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17746,11 +17054,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17783,11 +17087,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17820,11 +17120,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17857,11 +17153,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17894,11 +17186,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17931,11 +17219,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17968,11 +17252,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18005,11 +17285,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18042,11 +17318,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18075,16 +17347,14 @@
         <v>497924.40053038</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
       <c r="M466" t="inlineStr"/>
     </row>
     <row r="467">
@@ -18275,7 +17545,7 @@
         <v>489534.41342685</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18308,7 +17578,7 @@
         <v>495669.92862685</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -32762,7 +32032,7 @@
         <v>612424.953037831</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32828,7 +32098,7 @@
         <v>671949.112325531</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32861,7 +32131,7 @@
         <v>676673.381625531</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32894,7 +32164,7 @@
         <v>697707.325625531</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33224,7 +32494,7 @@
         <v>695421.131427641</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33257,7 +32527,7 @@
         <v>686903.988811581</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33290,7 +32560,7 @@
         <v>694220.332111581</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33323,7 +32593,7 @@
         <v>697253.546311581</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33356,7 +32626,7 @@
         <v>693023.227711581</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33389,7 +32659,7 @@
         <v>693592.976511581</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33422,7 +32692,7 @@
         <v>697896.2505954209</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33455,7 +32725,7 @@
         <v>709193.976595421</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33488,7 +32758,7 @@
         <v>717733.840095421</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33521,7 +32791,7 @@
         <v>697908.1637954209</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33554,7 +32824,7 @@
         <v>702621.0946954209</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33587,7 +32857,7 @@
         <v>735757.9156954209</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33620,7 +32890,7 @@
         <v>766679.683495421</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33653,7 +32923,7 @@
         <v>748033.303495421</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33686,7 +32956,7 @@
         <v>732739.5992954209</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33719,7 +32989,7 @@
         <v>709001.2447562909</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33752,7 +33022,7 @@
         <v>701006.9621159009</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33785,7 +33055,7 @@
         <v>701006.9621159009</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33818,7 +33088,7 @@
         <v>703371.160415901</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33884,7 +33154,7 @@
         <v>714670.207915901</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34082,7 +33352,7 @@
         <v>664436.256350321</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34115,7 +33385,7 @@
         <v>632764.825344821</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34148,7 +33418,7 @@
         <v>648038.521044821</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34181,7 +33451,7 @@
         <v>644405.859844821</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34214,7 +33484,7 @@
         <v>645101.1709448211</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34247,7 +33517,7 @@
         <v>636499.0947448211</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34280,7 +33550,7 @@
         <v>637557.197153461</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34313,7 +33583,7 @@
         <v>641708.2838543111</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34346,7 +33616,7 @@
         <v>649348.3088543111</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34379,7 +33649,7 @@
         <v>652817.2500418111</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34412,7 +33682,7 @@
         <v>649961.0207418111</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34445,7 +33715,7 @@
         <v>646992.9182260311</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34478,7 +33748,7 @@
         <v>641536.3418260311</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34511,7 +33781,7 @@
         <v>636847.3899260311</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34544,7 +33814,7 @@
         <v>647003.1449260311</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34577,7 +33847,7 @@
         <v>636612.8154260311</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34610,7 +33880,7 @@
         <v>631698.5391260311</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34643,7 +33913,7 @@
         <v>634130.1498260311</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34676,7 +33946,7 @@
         <v>612914.2582260311</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34709,7 +33979,7 @@
         <v>608451.0132260311</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34742,7 +34012,7 @@
         <v>616667.0056260311</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34973,7 +34243,7 @@
         <v>609018.0758951211</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35039,7 +34309,7 @@
         <v>609018.0758951211</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35270,7 +34540,7 @@
         <v>609736.7080951211</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35303,7 +34573,7 @@
         <v>609736.7080951211</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35336,7 +34606,7 @@
         <v>605754.4127951211</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35369,7 +34639,7 @@
         <v>606991.8565951211</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35402,7 +34672,7 @@
         <v>610869.6229951211</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35435,7 +34705,7 @@
         <v>608312.0153951211</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35468,7 +34738,7 @@
         <v>603781.559895121</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35501,7 +34771,7 @@
         <v>596529.666995121</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35534,7 +34804,7 @@
         <v>599641.1732951211</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35567,7 +34837,7 @@
         <v>599758.511295121</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35600,7 +34870,7 @@
         <v>599656.8324951211</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35633,7 +34903,7 @@
         <v>600810.0773951211</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35666,7 +34936,7 @@
         <v>603084.0009951211</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35831,7 +35101,7 @@
         <v>610473.210295121</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35897,7 +35167,7 @@
         <v>614808.6902951209</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35963,7 +35233,7 @@
         <v>597127.669295121</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35996,7 +35266,7 @@
         <v>598713.1131951209</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36029,7 +35299,7 @@
         <v>600157.1713951209</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36062,7 +35332,7 @@
         <v>600367.8885951209</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36095,7 +35365,7 @@
         <v>600393.8515951209</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36128,7 +35398,7 @@
         <v>601411.8476020108</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36161,7 +35431,7 @@
         <v>601411.8476020108</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36194,7 +35464,7 @@
         <v>594692.3482020108</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36227,7 +35497,7 @@
         <v>621254.1928020108</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36260,7 +35530,7 @@
         <v>627357.1638020108</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36293,7 +35563,7 @@
         <v>627357.1638020108</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36326,7 +35596,7 @@
         <v>627357.1638020108</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36359,7 +35629,7 @@
         <v>626642.9532020108</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36392,7 +35662,7 @@
         <v>625656.7635020108</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36425,7 +35695,7 @@
         <v>626700.1976020108</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36458,7 +35728,7 @@
         <v>634271.4222020108</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36491,7 +35761,7 @@
         <v>640314.2258020107</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36524,7 +35794,7 @@
         <v>641399.9055020107</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36557,7 +35827,7 @@
         <v>638295.8132020107</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36590,7 +35860,7 @@
         <v>639999.4772020107</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36623,7 +35893,7 @@
         <v>637703.7769020107</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36656,7 +35926,7 @@
         <v>638955.1609020106</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36689,7 +35959,7 @@
         <v>636921.8218020106</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36722,7 +35992,7 @@
         <v>639744.2318020107</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36755,7 +36025,7 @@
         <v>643198.8307020107</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36788,7 +36058,7 @@
         <v>643198.8307020107</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36821,7 +36091,7 @@
         <v>641874.6351020107</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36854,7 +36124,7 @@
         <v>640436.3136020107</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36887,7 +36157,7 @@
         <v>645326.4431020108</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36920,7 +36190,7 @@
         <v>643540.7835020107</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36953,7 +36223,7 @@
         <v>641951.0001020108</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36986,7 +36256,7 @@
         <v>641951.0001020108</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37085,7 +36355,7 @@
         <v>641080.8117020108</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37118,7 +36388,7 @@
         <v>639994.0544020107</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37151,7 +36421,7 @@
         <v>639498.3853020107</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37184,7 +36454,7 @@
         <v>644335.3573020106</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37217,7 +36487,7 @@
         <v>639724.0980020106</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37250,7 +36520,7 @@
         <v>640506.7134020106</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37283,7 +36553,7 @@
         <v>642014.0883020107</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37349,7 +36619,7 @@
         <v>637860.3541020107</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37382,7 +36652,7 @@
         <v>649262.1963020107</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37415,7 +36685,7 @@
         <v>647017.8049020107</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37448,7 +36718,7 @@
         <v>638989.7387020107</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37481,7 +36751,7 @@
         <v>632654.1296020107</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37514,7 +36784,7 @@
         <v>648649.7719020107</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37547,7 +36817,7 @@
         <v>648541.4012020107</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37580,7 +36850,7 @@
         <v>648541.4012020107</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37613,7 +36883,7 @@
         <v>648546.4824020107</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37679,7 +36949,7 @@
         <v>648112.0979020107</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37712,7 +36982,7 @@
         <v>647298.7363020107</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37745,7 +37015,7 @@
         <v>647469.5078663807</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37778,7 +37048,7 @@
         <v>647214.2732663808</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37844,7 +37114,7 @@
         <v>643664.9445663808</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37910,7 +37180,7 @@
         <v>649441.2241663808</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37976,7 +37246,7 @@
         <v>647593.3738663808</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38009,7 +37279,7 @@
         <v>649426.4329663807</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38075,7 +37345,7 @@
         <v>652349.6241663807</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38108,7 +37378,7 @@
         <v>651624.4314663807</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38141,7 +37411,7 @@
         <v>649329.2791663808</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38174,7 +37444,7 @@
         <v>653061.6472663807</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38207,7 +37477,7 @@
         <v>656136.9763663807</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38240,7 +37510,7 @@
         <v>657459.6928663807</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38273,7 +37543,7 @@
         <v>658093.1528663806</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38306,7 +37576,7 @@
         <v>654860.8552663806</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38339,7 +37609,7 @@
         <v>654278.3072978606</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38372,7 +37642,7 @@
         <v>652567.5230978606</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38405,7 +37675,7 @@
         <v>651177.1895978607</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38438,7 +37708,7 @@
         <v>649172.2875978607</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38471,7 +37741,7 @@
         <v>656896.4816037907</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38504,7 +37774,7 @@
         <v>656896.4816037907</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38867,7 +38137,7 @@
         <v>616591.7434496908</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38900,7 +38170,7 @@
         <v>615895.1508496908</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38966,7 +38236,7 @@
         <v>608341.9493496908</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38999,7 +38269,7 @@
         <v>629016.6839496908</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -39032,7 +38302,7 @@
         <v>618425.4556496908</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -39065,7 +38335,7 @@
         <v>606330.4617496908</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -39131,7 +38401,7 @@
         <v>604017.1783496907</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39296,7 +38566,7 @@
         <v>587335.9361496906</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -46138,6 +45408,6 @@
       <c r="M1316" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>